--- a/txxxxt/ProducthuntProductCopy.xlsx
+++ b/txxxxt/ProducthuntProductCopy.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="399">
   <si>
     <t>Id</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Votescount</t>
   </si>
   <si>
-    <t>Makers Information</t>
+    <t>Profile_Url</t>
   </si>
   <si>
     <t>Live Video Calling SDK by Dyte</t>
@@ -48,7 +48,1174 @@
     <t>https://www.producthunt.com/posts/live-video-calling-sdk-by-dyte?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
   </si>
   <si>
-    <t>info</t>
+    <t>https://www.producthunt.com/@abhishek_kankani, https://www.producthunt.com/@palash_golecha, https://www.producthunt.com/@kushagra_vaish</t>
+  </si>
+  <si>
+    <t>LINER AI</t>
+  </si>
+  <si>
+    <t>A trustworthy ChatGPT search assistant</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/liner-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@brianwoo, https://www.producthunt.com/@jinukim21, https://www.producthunt.com/@jinukim, https://www.producthunt.com/@sungmoon, https://www.producthunt.com/@mynhpark</t>
+  </si>
+  <si>
+    <t>Getgud.io</t>
+  </si>
+  <si>
+    <t>Making online games toxic free</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/getgud-io?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@artkulakov, https://www.producthunt.com/@guykroupp</t>
+  </si>
+  <si>
+    <t>littlecook</t>
+  </si>
+  <si>
+    <t>Turn unused ingredients into delicious new dishes</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/littlecook?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@supnim, https://www.producthunt.com/@amir_bio</t>
+  </si>
+  <si>
+    <t>Terrastruct</t>
+  </si>
+  <si>
+    <t>The diagramming tool for developers</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/terrastruct-3?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@alixanderwang</t>
+  </si>
+  <si>
+    <t>PriceWell Bubble Plugin for Stripe</t>
+  </si>
+  <si>
+    <t>No fuss, no-code Stripe subscriptions for Bubble apps</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/pricewell-bubble-plugin-for-stripe?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@matthew_reid1, https://www.producthunt.com/@new_user__0292023a0db70d1b8ed6caa</t>
+  </si>
+  <si>
+    <t>ChatGPT Famous Resumes</t>
+  </si>
+  <si>
+    <t>1000+ AI generated resumes of famous people</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/chatgpt-famous-resumes?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@viktorkirilov</t>
+  </si>
+  <si>
+    <t>Delibr AI</t>
+  </si>
+  <si>
+    <t>AI-assisted end-to-end product management platform</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/delibr-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@nilsjanse, https://www.producthunt.com/@andre_dantorp1, https://www.producthunt.com/@fredrika_andersson, https://www.producthunt.com/@erik_wenneborg, https://www.producthunt.com/@fbonawiede, https://www.producthunt.com/@nicole_landgraff</t>
+  </si>
+  <si>
+    <t>Kayyo</t>
+  </si>
+  <si>
+    <t>AI-powered personal MMA trainer</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/kayyo?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@labibyasir, https://www.producthunt.com/@aymansaleh, https://www.producthunt.com/@tedjouc1, https://www.producthunt.com/@mohamed_jaber2, https://www.producthunt.com/@messipsa21, https://www.producthunt.com/@michaelpaik</t>
+  </si>
+  <si>
+    <t>Femme Stock</t>
+  </si>
+  <si>
+    <t>Beautiful, feminine Ai stock images</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/femme-stock?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@zeng</t>
+  </si>
+  <si>
+    <t>Zoom Timer BlueSky Apps</t>
+  </si>
+  <si>
+    <t>Timer shared directly in your Zoom meetings</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/zoom-timer-bluesky-apps?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@ben_ross, https://www.producthunt.com/@mait</t>
+  </si>
+  <si>
+    <t>WhatsApp Beta</t>
+  </si>
+  <si>
+    <t>A more seamless experience for WhatsApp users on macOS</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/whatsapp-beta?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@iamsandysk, https://www.producthunt.com/@aluxian</t>
+  </si>
+  <si>
+    <t>balancez</t>
+  </si>
+  <si>
+    <t>Achieving balance, one day at a time</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/balancez?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@elifduran</t>
+  </si>
+  <si>
+    <t>Tibio</t>
+  </si>
+  <si>
+    <t>Track your mood, habits, make notes, and more</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/tibio?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@patriksvob, https://www.producthunt.com/@duc_phi_viet</t>
+  </si>
+  <si>
+    <t>Monse</t>
+  </si>
+  <si>
+    <t>Privacy-friendly personal finance application</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/monse-2?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@victor_falcon</t>
+  </si>
+  <si>
+    <t>Nike Training Club on Netflix</t>
+  </si>
+  <si>
+    <t>Just stream it</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/nike-training-club-on-netflix?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@schlafman, https://www.producthunt.com/@navin_</t>
+  </si>
+  <si>
+    <t>bestcodingpractices.dev</t>
+  </si>
+  <si>
+    <t>A place to learn, inspire and share best coding practices</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/bestcodingpractices-dev?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@cedric_teyton, https://www.producthunt.com/@arthur_magne, https://www.producthunt.com/@xavier_blanc, https://www.producthunt.com/@heloise_birot, https://www.producthunt.com/@corentin_latappy, https://www.producthunt.com/@malo_couaran</t>
+  </si>
+  <si>
+    <t>Moonwalkers</t>
+  </si>
+  <si>
+    <t>Seriously fast walking shoes</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/moonwalkers?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>Squaredance for Shopify</t>
+  </si>
+  <si>
+    <t>Partner marketplace for DTC brands, get customers,grow sales</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/squaredance-for-shopify?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@shilpamandhan, https://www.producthunt.com/@nmastracci, https://www.producthunt.com/@michael_fulton, https://www.producthunt.com/@camay_lee</t>
+  </si>
+  <si>
+    <t>7-Day UX Job Hunting Challenge</t>
+  </si>
+  <si>
+    <t>Go from 0 to 10 job applications, in 7 days</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/7-day-ux-job-hunting-challenge?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@semigrownkid, https://www.producthunt.com/@bribribri</t>
+  </si>
+  <si>
+    <t>Whispr</t>
+  </si>
+  <si>
+    <t>Alternative to ChatGPT</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/whispr-2?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@alvaro_pintado</t>
+  </si>
+  <si>
+    <t>This Product Does Not Exist</t>
+  </si>
+  <si>
+    <t>Reinventing the wheel with AI, one product at a time</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/this-product-does-not-exist-1?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@verfasor</t>
+  </si>
+  <si>
+    <t>Fablegym</t>
+  </si>
+  <si>
+    <t>Read a classic book in 30 days as an email newsletter</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/fablegym?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@solomon_teach</t>
+  </si>
+  <si>
+    <t>ClipNinja</t>
+  </si>
+  <si>
+    <t>Minimal copy and paste tool for Mac</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/clipninja-2?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@liborhuspenina</t>
+  </si>
+  <si>
+    <t>DeveloperHub.io</t>
+  </si>
+  <si>
+    <t>The most advanced tool for creating product and API docs</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/developerhub-io-2?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@zaid_daba_een1</t>
+  </si>
+  <si>
+    <t>Qeraunos</t>
+  </si>
+  <si>
+    <t>An ultrafast, lightweight caching solution for GraphQL</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/qeraunos?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@arthurynh, https://www.producthunt.com/@dennis_cheung, https://www.producthunt.com/@amrit_vela</t>
+  </si>
+  <si>
+    <t>Deploy Button for custom GPT-3 APIs</t>
+  </si>
+  <si>
+    <t>Instant GPT-3 backend hosting so you can focus on product</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/deploy-button-for-custom-gpt-3-apis?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@edwardbenson</t>
+  </si>
+  <si>
+    <t>Free Valentine's Day 3d illustrations</t>
+  </si>
+  <si>
+    <t>Lovely 3d illustrations for your design projects</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/free-valentine-s-day-3d-illustrations?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@anton_mishin, https://www.producthunt.com/@egozavria, https://www.producthunt.com/@new_user_92c4ffb9ee</t>
+  </si>
+  <si>
+    <t>Read Me Aloud</t>
+  </si>
+  <si>
+    <t>iPad tales for kids who are learning to read</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/read-me-aloud?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@nutsmuggler</t>
+  </si>
+  <si>
+    <t>DeepReview</t>
+  </si>
+  <si>
+    <t>Write CVs, cover letters, perf reviews with the power of AI</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/deepreview?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@horia141, https://www.producthunt.com/@liviu_coman</t>
+  </si>
+  <si>
+    <t>Git Assistant</t>
+  </si>
+  <si>
+    <t>Describe a feature; get a pull request. Github + Chat GPT</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/git-assistant?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@akondelin</t>
+  </si>
+  <si>
+    <t>Anagramish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web based word game combining anagrams and word ladders </t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/anagramish?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@emh</t>
+  </si>
+  <si>
+    <t>EffectiveGPT</t>
+  </si>
+  <si>
+    <t>Get accurate ChatGPT prompts</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/effectivegpt?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@recurrsed</t>
+  </si>
+  <si>
+    <t>Bubbly</t>
+  </si>
+  <si>
+    <t>Resolve customer queries 10x faster with OpenAI</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/bubbly-3?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@andy_andy123</t>
+  </si>
+  <si>
+    <t>Twitter for Noobs</t>
+  </si>
+  <si>
+    <t>All-in-one Twitter growth framework and resource hub</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/twitter-for-noobs?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>ChatGenie</t>
+  </si>
+  <si>
+    <t>Talk to any character, dead or alive, real or made up</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/chatgenie?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@web3slinger</t>
+  </si>
+  <si>
+    <t>Recipes By AI</t>
+  </si>
+  <si>
+    <t>Generate recipes from a list of ingredients, powered by AI</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/recipes-by-ai-2?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@introvertgeekuk</t>
+  </si>
+  <si>
+    <t>wallaroo</t>
+  </si>
+  <si>
+    <t>Wallpapers just for you (from the maker of Twitterrific)!</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/wallaroo?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@vonster, https://www.producthunt.com/@chockenberry</t>
+  </si>
+  <si>
+    <t>Møbel</t>
+  </si>
+  <si>
+    <t>Transform your room with artificial intelligence.</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/mobel-2?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@pwntus</t>
+  </si>
+  <si>
+    <t>Atomic</t>
+  </si>
+  <si>
+    <t>Solve all your scheduling problems using AI for everyone</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/atomic-4?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@rushi_parikh</t>
+  </si>
+  <si>
+    <t>Loti</t>
+  </si>
+  <si>
+    <t>Remove non-consensual intimate images of yourself online.</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/loti-2?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@lukearrigoni, https://www.producthunt.com/@rebekah_arrigoni, https://www.producthunt.com/@hirak_chhatbar</t>
+  </si>
+  <si>
+    <t>Wifi QR Code</t>
+  </si>
+  <si>
+    <t>Share your Wifi with friends &amp; family</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/wifi-qr-code?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@max_sommer</t>
+  </si>
+  <si>
+    <t>ChatGPT Prompts</t>
+  </si>
+  <si>
+    <t>Prompts tailored for entrepreneurs, marketers, developers...</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/chatgpt-prompts?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@adrienf</t>
+  </si>
+  <si>
+    <t>Text2SQL.AI</t>
+  </si>
+  <si>
+    <t>Generate SQL with AI</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/text2sql-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@gergo_miklos</t>
+  </si>
+  <si>
+    <t>Jobs Scout</t>
+  </si>
+  <si>
+    <t>Improve your resume with the power of AI</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/jobs-scout?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@sasishan</t>
+  </si>
+  <si>
+    <t>What Word Is That?</t>
+  </si>
+  <si>
+    <t>Find the right word when you need it</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/what-word-is-that?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@michael_li4</t>
+  </si>
+  <si>
+    <t>Pencil AI</t>
+  </si>
+  <si>
+    <t>Bring you the power of GPT-3 to you on telegram.</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/pencil-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@arafat_akata</t>
+  </si>
+  <si>
+    <t>Vucac</t>
+  </si>
+  <si>
+    <t>Online whiteboard collaboration tool for every team</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/vucac?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@vaux_calvert</t>
+  </si>
+  <si>
+    <t>Circle</t>
+  </si>
+  <si>
+    <t>Buy, store, receive and send Bitcoin super fast.</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/circle-98339679-23ac-4593-a2f8-b9b63a697717?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@pirhofermanuel</t>
+  </si>
+  <si>
+    <t>Time Boxing Planner</t>
+  </si>
+  <si>
+    <t>Take back control of your time</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/time-boxing-planner?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@iamsourabhshen</t>
+  </si>
+  <si>
+    <t>Mirror</t>
+  </si>
+  <si>
+    <t>The home for web3 publishing</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/mirror-11?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>Notion Ultimate Life Planner</t>
+  </si>
+  <si>
+    <t>Plan and achieve your goals effortlessly</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/notion-ultimate-life-planner?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@mitkus</t>
+  </si>
+  <si>
+    <t>AutoPay</t>
+  </si>
+  <si>
+    <t>Automate any recurring payment activity on-chain w/ AutoPay</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/autopay?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@timbresociety, https://www.producthunt.com/@priyanshu_panda1</t>
+  </si>
+  <si>
+    <t>IdeaTank</t>
+  </si>
+  <si>
+    <t>Unlock opportunities through 1 on 1 connection with Ideators</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/ideatank?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@arpit_goyal_1, https://www.producthunt.com/@aakash074</t>
+  </si>
+  <si>
+    <t>Vikara</t>
+  </si>
+  <si>
+    <t>Chatbot nutritionist to help you eat healthy</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/vikara?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@pravin_h</t>
+  </si>
+  <si>
+    <t>Cron Jobs Expert</t>
+  </si>
+  <si>
+    <t>Create Cron job without line of code</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/cron-jobs-expert?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@daniel_nikulshyn1</t>
+  </si>
+  <si>
+    <t>Optic Weather</t>
+  </si>
+  <si>
+    <t>Experience the weather like never before</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/optic-weather?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@tonye</t>
+  </si>
+  <si>
+    <t>Tab Manager Auto</t>
+  </si>
+  <si>
+    <t>Effortlessly boost your productivity with Tab Manager Auto.</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/tab-manager-auto?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@kevi</t>
+  </si>
+  <si>
+    <t>Plum Notes</t>
+  </si>
+  <si>
+    <t>Note taking application with a different focus.</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/plum-notes?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@plum_notes</t>
+  </si>
+  <si>
+    <t>mock.qa</t>
+  </si>
+  <si>
+    <t>gRPC and HTTP mock APIs in the cloud</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/mock-qa?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@evgeniy_kosjakov, https://www.producthunt.com/@victor_vorobyev, https://www.producthunt.com/@vladimir_solovev2</t>
+  </si>
+  <si>
+    <t>OmniWork</t>
+  </si>
+  <si>
+    <t>One link to run your business</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/omniwork-2?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@gomesf, https://www.producthunt.com/@sohrab_tellaie, https://www.producthunt.com/@lawchan, https://www.producthunt.com/@mazdak_sorosh, https://www.producthunt.com/@beezhan_rostaqi</t>
+  </si>
+  <si>
+    <t>Dookey Dash</t>
+  </si>
+  <si>
+    <t>Dookey Dash is a skill-based mint by Yuga Labs</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/dookey-dash?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>Calendar Query</t>
+  </si>
+  <si>
+    <t>Query your Google Calendar with SQL</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/calendar-query?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@dbradleyfl</t>
+  </si>
+  <si>
+    <t>Furmasterpiece Pet Avatar Creator</t>
+  </si>
+  <si>
+    <t>Furmasterpiece turns any pet photo into a stunning avatar</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/furmasterpiece-pet-avatar-creator?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@rando_tkatsenko</t>
+  </si>
+  <si>
+    <t>GiftBot: Love Edition</t>
+  </si>
+  <si>
+    <t>Valentines Day gift help from a GPT-3 chatbot</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/giftbot-love-edition?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@thiteanish</t>
+  </si>
+  <si>
+    <t>Internet Is Beautiful</t>
+  </si>
+  <si>
+    <t>Discover the most interesting, weird and awesome websites</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/internet-is-beautiful?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@jaisalr</t>
+  </si>
+  <si>
+    <t>WorkHub Connect for Mobile</t>
+  </si>
+  <si>
+    <t>External and Internal communication on the go</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/workhub-connect-for-mobile?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@hamza_afzal_butt, https://www.producthunt.com/@qudsia_ali, https://www.producthunt.com/@sidraarifali, https://www.producthunt.com/@noshaid, https://www.producthunt.com/@bilal_anwar1, https://www.producthunt.com/@aqsa_sajjad, https://www.producthunt.com/@nabeel_amir, https://www.producthunt.com/@ali_shaheen</t>
+  </si>
+  <si>
+    <t>The Help Center Academy</t>
+  </si>
+  <si>
+    <t>Learn the secrets of building a successful help center</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/the-help-center-academy?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@sobedominik</t>
+  </si>
+  <si>
+    <t>Makelog</t>
+  </si>
+  <si>
+    <t>Autogenerate your changelog with GPT-3</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/makelog?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@juliejennifernguyen, https://www.producthunt.com/@britonbaker, https://www.producthunt.com/@julio_farah, https://www.producthunt.com/@hubbardjacob, https://www.producthunt.com/@loganliffick</t>
+  </si>
+  <si>
+    <t>Pitchdeck Challenge</t>
+  </si>
+  <si>
+    <t>10 Days to master your pitchdeck creation</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/pitchdeck-challenge?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@derstartupcfo</t>
+  </si>
+  <si>
+    <t>Inside AI</t>
+  </si>
+  <si>
+    <t>The most complete AI Newsletter</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/inside-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@jan_sulek</t>
+  </si>
+  <si>
+    <t>Product Launch AI</t>
+  </si>
+  <si>
+    <t>Supercharge your Product Launches with the Power of AI</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/product-launch-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@adithya</t>
+  </si>
+  <si>
+    <t>MusicLM by Google</t>
+  </si>
+  <si>
+    <t>A text to music AI model by Google</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/musiclm-by-google?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>Casper</t>
+  </si>
+  <si>
+    <t>GPT-3 in your iPhone keyboard</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/casper-5?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@johan_v1</t>
+  </si>
+  <si>
+    <t>Social Media Manager</t>
+  </si>
+  <si>
+    <t>Plan your social media content like a pro</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/social-media-manager-2?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@heyynoon</t>
+  </si>
+  <si>
+    <t>dbt-infer</t>
+  </si>
+  <si>
+    <t>Next-Gen analytics for dbt, supercharge models with Infer</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/dbt-infer?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@ryanrgarland, https://www.producthunt.com/@erik_mathiesen_dreyfus</t>
+  </si>
+  <si>
+    <t>The Guest Posts App</t>
+  </si>
+  <si>
+    <t>A new way to find guest posts faster</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/the-guest-posts-app?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@siddharth_verma1</t>
+  </si>
+  <si>
+    <t>hai Infusions Smart Showerhead</t>
+  </si>
+  <si>
+    <t>Your daily shower, reimagined with smart tech</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/hai-infusions-smart-showerhead?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@leah_stigile, https://www.producthunt.com/@gina_oh, https://www.producthunt.com/@kate_starr, https://www.producthunt.com/@monika_markovinovic, https://www.producthunt.com/@lbrody, https://www.producthunt.com/@madi_fisk</t>
+  </si>
+  <si>
+    <t>Welma</t>
+  </si>
+  <si>
+    <t>Understand and retain complex text with the help of AI</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/welma?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>Followup Fish</t>
+  </si>
+  <si>
+    <t>Bubble up emails back to the top of your inbox</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/followup-fish?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@marckohlbrugge</t>
+  </si>
+  <si>
+    <t>Extractify</t>
+  </si>
+  <si>
+    <t>Convert Youtube videos into Tweets and LinkedIn posts</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/extractify?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@ahsan_shahid</t>
+  </si>
+  <si>
+    <t>Spot a Bot</t>
+  </si>
+  <si>
+    <t>Get insights into the bot activity for Twitter trends</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/spot-a-bot?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@nicolas_graf, https://www.producthunt.com/@kevin_harizaj, https://www.producthunt.com/@lener, https://www.producthunt.com/@dadonia_</t>
+  </si>
+  <si>
+    <t>Semantic AI</t>
+  </si>
+  <si>
+    <t>The fullstack AI writing suite, that gives you back control</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/semantic-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@amartya_varma</t>
+  </si>
+  <si>
+    <t>MailGPT</t>
+  </si>
+  <si>
+    <t>Experience the convenience</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/mailgpt?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@sourav204</t>
+  </si>
+  <si>
+    <t>Multichain Playbook</t>
+  </si>
+  <si>
+    <t>Unlock the potential of NFT Project with multichain playbook</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/multichain-playbook?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@dineshkruplani, https://www.producthunt.com/@ramees_p_s, https://www.producthunt.com/@gitgat, https://www.producthunt.com/@sahil639, https://www.producthunt.com/@avinash_kumar31, https://www.producthunt.com/@harikrishnaraj</t>
+  </si>
+  <si>
+    <t>Oura for Apple Watch</t>
+  </si>
+  <si>
+    <t>Be mindful of your health data while you’re on the go</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/oura-for-apple-watch?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@thisisthequick, https://www.producthunt.com/@plahtela</t>
+  </si>
+  <si>
+    <t>ciphergoat</t>
+  </si>
+  <si>
+    <t>Encrypt and backup your recovery seed phrases</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/ciphergoat?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@aaronpardes, https://www.producthunt.com/@danilo_bandovic, https://www.producthunt.com/@ronedg</t>
+  </si>
+  <si>
+    <t>SULO-Y</t>
+  </si>
+  <si>
+    <t>Trash bins just got smarter</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/sulo-y?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>SpicyHR</t>
+  </si>
+  <si>
+    <t>Forget Lever. SpicyHR is lightweight, intuitive, and FAST.</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/spicyhr?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@alimir, https://www.producthunt.com/@meisamm</t>
+  </si>
+  <si>
+    <t>Shell GPT</t>
+  </si>
+  <si>
+    <t>CLI tool for developers, helps you accomplish tasks faster</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/shell-gpt?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>Lightness</t>
+  </si>
+  <si>
+    <t>App for meeting new people, exploring cultures and messaging</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/lightness?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@stefano_ippolito_gitto</t>
+  </si>
+  <si>
+    <t>Moodlody</t>
+  </si>
+  <si>
+    <t>make you feel relaxed</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/moodlody?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@deathtinyz</t>
+  </si>
+  <si>
+    <t>Todidlist</t>
+  </si>
+  <si>
+    <t>Simple place to track what you've done</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/todidlist?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@patrick_tran1</t>
+  </si>
+  <si>
+    <t>Ask by Slite</t>
+  </si>
+  <si>
+    <t>Use AI to ask your workspace questions</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/ask-by-slite?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@christophepas, https://www.producthunt.com/@jonmccull, https://www.producthunt.com/@pierre_renaudin, https://www.producthunt.com/@fadeelah_al_horaibi, https://www.producthunt.com/@ani_cordani, https://www.producthunt.com/@clara_rua, https://www.producthunt.com/@brieuc1, https://www.producthunt.com/@aduban, https://www.producthunt.com/@mydigitalself, https://www.producthunt.com/@arnaudrinquin, https://www.producthunt.com/@laure_albouy, https://www.producthunt.com/@calyhre, https://www.producthunt.com/@rob_mcmackin, https://www.producthunt.com/@ataravant, https://www.producthunt.com/@guillaume_morin, https://www.producthunt.com/@shahor, https://www.producthunt.com/@teubeu2</t>
+  </si>
+  <si>
+    <t>Charlie</t>
+  </si>
+  <si>
+    <t>Helping everyone create marketing content</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/charlie-6?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@brennanwoodruff, https://www.producthunt.com/@kostas_hatalis, https://www.producthunt.com/@despina_christou</t>
+  </si>
+  <si>
+    <t>NeevaAI</t>
+  </si>
+  <si>
+    <t>Search powered by AI to get answers, not ads</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/neevaai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@hwi, https://www.producthunt.com/@yusuf_ozuysal, https://www.producthunt.com/@sethli, https://www.producthunt.com/@jiwoong_lee, https://www.producthunt.com/@coopslarhette, https://www.producthunt.com/@rajhans_samdani, https://www.producthunt.com/@edmundloo, https://www.producthunt.com/@darinwf, https://www.producthunt.com/@sridhar_ramaswamy1, https://www.producthunt.com/@ahraycho, https://www.producthunt.com/@tyggy</t>
+  </si>
+  <si>
+    <t>WritingMate.ai</t>
+  </si>
+  <si>
+    <t>Free ChatGPT alternative that works as a Chrome extension</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/writingmate-ai?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@ednevsky, https://www.producthunt.com/@artem_vysotsky</t>
+  </si>
+  <si>
+    <t>Conektto API-First Design Studio</t>
+  </si>
+  <si>
+    <t>API design studio for product managers</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/conektto-api-first-design-studio?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@rams_211, https://www.producthunt.com/@amol_dewhare, https://www.producthunt.com/@madhu_v_swamy1</t>
+  </si>
+  <si>
+    <t>Figma to WordPress Beta</t>
+  </si>
+  <si>
+    <t>Convert Figma to WordPress websites &amp; themes automatically</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/figma-to-wordpress-beta?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@garciafrey, https://www.producthunt.com/@cackbone, https://www.producthunt.com/@maublum, https://www.producthunt.com/@alimot15881733, https://www.producthunt.com/@ilyes_el_ayeb, https://www.producthunt.com/@saninemoreira</t>
+  </si>
+  <si>
+    <t>Alt Sprints</t>
+  </si>
+  <si>
+    <t>Idea to MVP in 2 weeks</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/posts/alt-sprints?utm_campaign=producthunt-api&amp;utm_medium=api-v2&amp;utm_source=Application%3A+test2+%28ID%3A+95747%29</t>
+  </si>
+  <si>
+    <t>https://www.producthunt.com/@ali_haider32, https://www.producthunt.com/@ahsan_asghar29, https://www.producthunt.com/@ahsan_sohail2, https://www.producthunt.com/@yetunde_lopez, https://www.producthunt.com/@abcorn</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -411,17 +1578,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="H123" sqref="H123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="5" max="5" width="39.5703125" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -463,6 +1626,1986 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>377157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>466</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>376810</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>370</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>376335</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>251</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>376853</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>261</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>377091</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7">
+        <v>271</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>377162</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8">
+        <v>232</v>
+      </c>
+      <c r="F8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>376934</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9">
+        <v>272</v>
+      </c>
+      <c r="F9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>377110</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>206</v>
+      </c>
+      <c r="F10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>377104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>160</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>376474</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12">
+        <v>138</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>377113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <v>120</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>376809</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14">
+        <v>117</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>377095</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>133</v>
+      </c>
+      <c r="F15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>375586</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16">
+        <v>123</v>
+      </c>
+      <c r="F16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>377115</v>
+      </c>
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>375401</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18">
+        <v>87</v>
+      </c>
+      <c r="F18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>377208</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19">
+        <v>68</v>
+      </c>
+      <c r="F19" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>376579</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D20" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20">
+        <v>76</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>377154</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21">
+        <v>66</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>377195</v>
+      </c>
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22">
+        <v>60</v>
+      </c>
+      <c r="F22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>377087</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>91</v>
+      </c>
+      <c r="E23">
+        <v>56</v>
+      </c>
+      <c r="F23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>377100</v>
+      </c>
+      <c r="B24" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24">
+        <v>59</v>
+      </c>
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>376954</v>
+      </c>
+      <c r="B25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>377071</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26">
+        <v>54</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>376994</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D27" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27">
+        <v>40</v>
+      </c>
+      <c r="F27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>377245</v>
+      </c>
+      <c r="B28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C28" t="s">
+        <v>110</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>376612</v>
+      </c>
+      <c r="B29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29">
+        <v>36</v>
+      </c>
+      <c r="F29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>373387</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30">
+        <v>36</v>
+      </c>
+      <c r="F30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>377229</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>377177</v>
+      </c>
+      <c r="B32" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>127</v>
+      </c>
+      <c r="E32">
+        <v>26</v>
+      </c>
+      <c r="F32" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>377160</v>
+      </c>
+      <c r="B33" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33">
+        <v>28</v>
+      </c>
+      <c r="F33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>377249</v>
+      </c>
+      <c r="B34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34">
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>377231</v>
+      </c>
+      <c r="B35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C35" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>374958</v>
+      </c>
+      <c r="B36" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" t="s">
+        <v>142</v>
+      </c>
+      <c r="D36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E36">
+        <v>331</v>
+      </c>
+      <c r="F36" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>376775</v>
+      </c>
+      <c r="B37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" t="s">
+        <v>146</v>
+      </c>
+      <c r="E37">
+        <v>248</v>
+      </c>
+      <c r="F37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>376839</v>
+      </c>
+      <c r="B38" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38">
+        <v>195</v>
+      </c>
+      <c r="F38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>377000</v>
+      </c>
+      <c r="B39" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E39">
+        <v>151</v>
+      </c>
+      <c r="F39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>376815</v>
+      </c>
+      <c r="B40" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" t="s">
+        <v>157</v>
+      </c>
+      <c r="D40" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40">
+        <v>135</v>
+      </c>
+      <c r="F40" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>376741</v>
+      </c>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41">
+        <v>115</v>
+      </c>
+      <c r="F41" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>376414</v>
+      </c>
+      <c r="B42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42">
+        <v>97</v>
+      </c>
+      <c r="F42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>376977</v>
+      </c>
+      <c r="B43" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" t="s">
+        <v>169</v>
+      </c>
+      <c r="D43" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43">
+        <v>95</v>
+      </c>
+      <c r="F43" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>376966</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44">
+        <v>96</v>
+      </c>
+      <c r="F44" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>373699</v>
+      </c>
+      <c r="B45" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" t="s">
+        <v>178</v>
+      </c>
+      <c r="E45">
+        <v>85</v>
+      </c>
+      <c r="F45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>376878</v>
+      </c>
+      <c r="B46" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" t="s">
+        <v>181</v>
+      </c>
+      <c r="D46" t="s">
+        <v>182</v>
+      </c>
+      <c r="E46">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>377018</v>
+      </c>
+      <c r="B47" t="s">
+        <v>184</v>
+      </c>
+      <c r="C47" t="s">
+        <v>185</v>
+      </c>
+      <c r="D47" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47">
+        <v>79</v>
+      </c>
+      <c r="F47" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>376967</v>
+      </c>
+      <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" t="s">
+        <v>190</v>
+      </c>
+      <c r="E48">
+        <v>54</v>
+      </c>
+      <c r="F48" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>376951</v>
+      </c>
+      <c r="B49" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" t="s">
+        <v>193</v>
+      </c>
+      <c r="D49" t="s">
+        <v>194</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+      <c r="F49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>376953</v>
+      </c>
+      <c r="B50" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50">
+        <v>42</v>
+      </c>
+      <c r="F50" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>376940</v>
+      </c>
+      <c r="B51" t="s">
+        <v>200</v>
+      </c>
+      <c r="C51" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" t="s">
+        <v>202</v>
+      </c>
+      <c r="E51">
+        <v>249</v>
+      </c>
+      <c r="F51" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>376914</v>
+      </c>
+      <c r="B52" t="s">
+        <v>204</v>
+      </c>
+      <c r="C52" t="s">
+        <v>205</v>
+      </c>
+      <c r="D52" t="s">
+        <v>206</v>
+      </c>
+      <c r="E52">
+        <v>223</v>
+      </c>
+      <c r="F52" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>376834</v>
+      </c>
+      <c r="B53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" t="s">
+        <v>209</v>
+      </c>
+      <c r="E53">
+        <v>288</v>
+      </c>
+      <c r="F53" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>376645</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" t="s">
+        <v>213</v>
+      </c>
+      <c r="E54">
+        <v>167</v>
+      </c>
+      <c r="F54" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>376900</v>
+      </c>
+      <c r="B55" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" t="s">
+        <v>217</v>
+      </c>
+      <c r="E55">
+        <v>137</v>
+      </c>
+      <c r="F55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>376921</v>
+      </c>
+      <c r="B56" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" t="s">
+        <v>221</v>
+      </c>
+      <c r="E56">
+        <v>96</v>
+      </c>
+      <c r="F56" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>376949</v>
+      </c>
+      <c r="B57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57">
+        <v>87</v>
+      </c>
+      <c r="F57" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>376916</v>
+      </c>
+      <c r="B58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58" t="s">
+        <v>229</v>
+      </c>
+      <c r="E58">
+        <v>66</v>
+      </c>
+      <c r="F58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>376917</v>
+      </c>
+      <c r="B59" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" t="s">
+        <v>233</v>
+      </c>
+      <c r="E59">
+        <v>64</v>
+      </c>
+      <c r="F59" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>376633</v>
+      </c>
+      <c r="B60" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" t="s">
+        <v>237</v>
+      </c>
+      <c r="E60">
+        <v>64</v>
+      </c>
+      <c r="F60" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>375646</v>
+      </c>
+      <c r="B61" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" t="s">
+        <v>241</v>
+      </c>
+      <c r="E61">
+        <v>66</v>
+      </c>
+      <c r="F61" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>376886</v>
+      </c>
+      <c r="B62" t="s">
+        <v>243</v>
+      </c>
+      <c r="C62" t="s">
+        <v>244</v>
+      </c>
+      <c r="D62" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62">
+        <v>56</v>
+      </c>
+      <c r="F62" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>376929</v>
+      </c>
+      <c r="B63" t="s">
+        <v>247</v>
+      </c>
+      <c r="C63" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" t="s">
+        <v>249</v>
+      </c>
+      <c r="E63">
+        <v>46</v>
+      </c>
+      <c r="F63" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>376772</v>
+      </c>
+      <c r="B64" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" t="s">
+        <v>251</v>
+      </c>
+      <c r="D64" t="s">
+        <v>252</v>
+      </c>
+      <c r="E64">
+        <v>41</v>
+      </c>
+      <c r="F64" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>376743</v>
+      </c>
+      <c r="B65" t="s">
+        <v>254</v>
+      </c>
+      <c r="C65" t="s">
+        <v>255</v>
+      </c>
+      <c r="D65" t="s">
+        <v>256</v>
+      </c>
+      <c r="E65">
+        <v>42</v>
+      </c>
+      <c r="F65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>376937</v>
+      </c>
+      <c r="B66" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" t="s">
+        <v>259</v>
+      </c>
+      <c r="D66" t="s">
+        <v>260</v>
+      </c>
+      <c r="E66">
+        <v>40</v>
+      </c>
+      <c r="F66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>376701</v>
+      </c>
+      <c r="B67" t="s">
+        <v>262</v>
+      </c>
+      <c r="C67" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" t="s">
+        <v>264</v>
+      </c>
+      <c r="E67">
+        <v>747</v>
+      </c>
+      <c r="F67" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>376690</v>
+      </c>
+      <c r="B68" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" t="s">
+        <v>268</v>
+      </c>
+      <c r="E68">
+        <v>651</v>
+      </c>
+      <c r="F68" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>376172</v>
+      </c>
+      <c r="B69" t="s">
+        <v>270</v>
+      </c>
+      <c r="C69" t="s">
+        <v>271</v>
+      </c>
+      <c r="D69" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69">
+        <v>332</v>
+      </c>
+      <c r="F69" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>376770</v>
+      </c>
+      <c r="B70" t="s">
+        <v>274</v>
+      </c>
+      <c r="C70" t="s">
+        <v>275</v>
+      </c>
+      <c r="D70" t="s">
+        <v>276</v>
+      </c>
+      <c r="E70">
+        <v>286</v>
+      </c>
+      <c r="F70" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>375921</v>
+      </c>
+      <c r="B71" t="s">
+        <v>278</v>
+      </c>
+      <c r="C71" t="s">
+        <v>279</v>
+      </c>
+      <c r="D71" t="s">
+        <v>280</v>
+      </c>
+      <c r="E71">
+        <v>269</v>
+      </c>
+      <c r="F71" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>376388</v>
+      </c>
+      <c r="B72" t="s">
+        <v>282</v>
+      </c>
+      <c r="C72" t="s">
+        <v>283</v>
+      </c>
+      <c r="D72" t="s">
+        <v>284</v>
+      </c>
+      <c r="E72">
+        <v>402</v>
+      </c>
+      <c r="F72" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>376177</v>
+      </c>
+      <c r="B73" t="s">
+        <v>286</v>
+      </c>
+      <c r="C73" t="s">
+        <v>287</v>
+      </c>
+      <c r="D73" t="s">
+        <v>288</v>
+      </c>
+      <c r="E73">
+        <v>218</v>
+      </c>
+      <c r="F73" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>376859</v>
+      </c>
+      <c r="B74" t="s">
+        <v>290</v>
+      </c>
+      <c r="C74" t="s">
+        <v>291</v>
+      </c>
+      <c r="D74" t="s">
+        <v>292</v>
+      </c>
+      <c r="E74">
+        <v>190</v>
+      </c>
+      <c r="F74" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>376393</v>
+      </c>
+      <c r="B75" t="s">
+        <v>293</v>
+      </c>
+      <c r="C75" t="s">
+        <v>294</v>
+      </c>
+      <c r="D75" t="s">
+        <v>295</v>
+      </c>
+      <c r="E75">
+        <v>200</v>
+      </c>
+      <c r="F75" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>376755</v>
+      </c>
+      <c r="B76" t="s">
+        <v>297</v>
+      </c>
+      <c r="C76" t="s">
+        <v>298</v>
+      </c>
+      <c r="D76" t="s">
+        <v>299</v>
+      </c>
+      <c r="E76">
+        <v>94</v>
+      </c>
+      <c r="F76" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>376125</v>
+      </c>
+      <c r="B77" t="s">
+        <v>301</v>
+      </c>
+      <c r="C77" t="s">
+        <v>302</v>
+      </c>
+      <c r="D77" t="s">
+        <v>303</v>
+      </c>
+      <c r="E77">
+        <v>86</v>
+      </c>
+      <c r="F77" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>376565</v>
+      </c>
+      <c r="B78" t="s">
+        <v>305</v>
+      </c>
+      <c r="C78" t="s">
+        <v>306</v>
+      </c>
+      <c r="D78" t="s">
+        <v>307</v>
+      </c>
+      <c r="E78">
+        <v>82</v>
+      </c>
+      <c r="F78" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>376789</v>
+      </c>
+      <c r="B79" t="s">
+        <v>309</v>
+      </c>
+      <c r="C79" t="s">
+        <v>310</v>
+      </c>
+      <c r="D79" t="s">
+        <v>311</v>
+      </c>
+      <c r="E79">
+        <v>209</v>
+      </c>
+      <c r="F79" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>376731</v>
+      </c>
+      <c r="B80" t="s">
+        <v>313</v>
+      </c>
+      <c r="C80" t="s">
+        <v>314</v>
+      </c>
+      <c r="D80" t="s">
+        <v>315</v>
+      </c>
+      <c r="E80">
+        <v>75</v>
+      </c>
+      <c r="F80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>376786</v>
+      </c>
+      <c r="B81" t="s">
+        <v>316</v>
+      </c>
+      <c r="C81" t="s">
+        <v>317</v>
+      </c>
+      <c r="D81" t="s">
+        <v>318</v>
+      </c>
+      <c r="E81">
+        <v>67</v>
+      </c>
+      <c r="F81" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>376802</v>
+      </c>
+      <c r="B82" t="s">
+        <v>320</v>
+      </c>
+      <c r="C82" t="s">
+        <v>321</v>
+      </c>
+      <c r="D82" t="s">
+        <v>322</v>
+      </c>
+      <c r="E82">
+        <v>64</v>
+      </c>
+      <c r="F82" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>375422</v>
+      </c>
+      <c r="B83" t="s">
+        <v>324</v>
+      </c>
+      <c r="C83" t="s">
+        <v>325</v>
+      </c>
+      <c r="D83" t="s">
+        <v>326</v>
+      </c>
+      <c r="E83">
+        <v>77</v>
+      </c>
+      <c r="F83" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>376669</v>
+      </c>
+      <c r="B84" t="s">
+        <v>328</v>
+      </c>
+      <c r="C84" t="s">
+        <v>329</v>
+      </c>
+      <c r="D84" t="s">
+        <v>330</v>
+      </c>
+      <c r="E84">
+        <v>52</v>
+      </c>
+      <c r="F84" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>376685</v>
+      </c>
+      <c r="B85" t="s">
+        <v>332</v>
+      </c>
+      <c r="C85" t="s">
+        <v>333</v>
+      </c>
+      <c r="D85" t="s">
+        <v>334</v>
+      </c>
+      <c r="E85">
+        <v>48</v>
+      </c>
+      <c r="F85" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>376717</v>
+      </c>
+      <c r="B86" t="s">
+        <v>336</v>
+      </c>
+      <c r="C86" t="s">
+        <v>337</v>
+      </c>
+      <c r="D86" t="s">
+        <v>338</v>
+      </c>
+      <c r="E86">
+        <v>42</v>
+      </c>
+      <c r="F86" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>376640</v>
+      </c>
+      <c r="B87" t="s">
+        <v>340</v>
+      </c>
+      <c r="C87" t="s">
+        <v>341</v>
+      </c>
+      <c r="D87" t="s">
+        <v>342</v>
+      </c>
+      <c r="E87">
+        <v>34</v>
+      </c>
+      <c r="F87" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>376756</v>
+      </c>
+      <c r="B88" t="s">
+        <v>344</v>
+      </c>
+      <c r="C88" t="s">
+        <v>345</v>
+      </c>
+      <c r="D88" t="s">
+        <v>346</v>
+      </c>
+      <c r="E88">
+        <v>54</v>
+      </c>
+      <c r="F88" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>376757</v>
+      </c>
+      <c r="B89" t="s">
+        <v>348</v>
+      </c>
+      <c r="C89" t="s">
+        <v>349</v>
+      </c>
+      <c r="D89" t="s">
+        <v>350</v>
+      </c>
+      <c r="E89">
+        <v>21</v>
+      </c>
+      <c r="F89" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>376750</v>
+      </c>
+      <c r="B90" t="s">
+        <v>351</v>
+      </c>
+      <c r="C90" t="s">
+        <v>352</v>
+      </c>
+      <c r="D90" t="s">
+        <v>353</v>
+      </c>
+      <c r="E90">
+        <v>20</v>
+      </c>
+      <c r="F90" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>376841</v>
+      </c>
+      <c r="B91" t="s">
+        <v>355</v>
+      </c>
+      <c r="C91" t="s">
+        <v>356</v>
+      </c>
+      <c r="D91" t="s">
+        <v>357</v>
+      </c>
+      <c r="E91">
+        <v>20</v>
+      </c>
+      <c r="F91" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>376758</v>
+      </c>
+      <c r="B92" t="s">
+        <v>358</v>
+      </c>
+      <c r="C92" t="s">
+        <v>359</v>
+      </c>
+      <c r="D92" t="s">
+        <v>360</v>
+      </c>
+      <c r="E92">
+        <v>20</v>
+      </c>
+      <c r="F92" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>376855</v>
+      </c>
+      <c r="B93" t="s">
+        <v>362</v>
+      </c>
+      <c r="C93" t="s">
+        <v>363</v>
+      </c>
+      <c r="D93" t="s">
+        <v>364</v>
+      </c>
+      <c r="E93">
+        <v>20</v>
+      </c>
+      <c r="F93" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>376875</v>
+      </c>
+      <c r="B94" t="s">
+        <v>366</v>
+      </c>
+      <c r="C94" t="s">
+        <v>367</v>
+      </c>
+      <c r="D94" t="s">
+        <v>368</v>
+      </c>
+      <c r="E94">
+        <v>18</v>
+      </c>
+      <c r="F94" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>376434</v>
+      </c>
+      <c r="B95" t="s">
+        <v>370</v>
+      </c>
+      <c r="C95" t="s">
+        <v>371</v>
+      </c>
+      <c r="D95" t="s">
+        <v>372</v>
+      </c>
+      <c r="E95">
+        <v>906</v>
+      </c>
+      <c r="F95" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>375110</v>
+      </c>
+      <c r="B96" t="s">
+        <v>374</v>
+      </c>
+      <c r="C96" t="s">
+        <v>375</v>
+      </c>
+      <c r="D96" t="s">
+        <v>376</v>
+      </c>
+      <c r="E96">
+        <v>974</v>
+      </c>
+      <c r="F96" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>374952</v>
+      </c>
+      <c r="B97" t="s">
+        <v>378</v>
+      </c>
+      <c r="C97" t="s">
+        <v>379</v>
+      </c>
+      <c r="D97" t="s">
+        <v>380</v>
+      </c>
+      <c r="E97">
+        <v>1117</v>
+      </c>
+      <c r="F97" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>376466</v>
+      </c>
+      <c r="B98" t="s">
+        <v>382</v>
+      </c>
+      <c r="C98" t="s">
+        <v>383</v>
+      </c>
+      <c r="D98" t="s">
+        <v>384</v>
+      </c>
+      <c r="E98">
+        <v>739</v>
+      </c>
+      <c r="F98" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>375784</v>
+      </c>
+      <c r="B99" t="s">
+        <v>386</v>
+      </c>
+      <c r="C99" t="s">
+        <v>387</v>
+      </c>
+      <c r="D99" t="s">
+        <v>388</v>
+      </c>
+      <c r="E99">
+        <v>541</v>
+      </c>
+      <c r="F99" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>375864</v>
+      </c>
+      <c r="B100" t="s">
+        <v>390</v>
+      </c>
+      <c r="C100" t="s">
+        <v>391</v>
+      </c>
+      <c r="D100" t="s">
+        <v>392</v>
+      </c>
+      <c r="E100">
+        <v>462</v>
+      </c>
+      <c r="F100" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>376506</v>
+      </c>
+      <c r="B101" t="s">
+        <v>394</v>
+      </c>
+      <c r="C101" t="s">
+        <v>395</v>
+      </c>
+      <c r="D101" t="s">
+        <v>396</v>
+      </c>
+      <c r="E101">
+        <v>295</v>
+      </c>
+      <c r="F101" t="s">
+        <v>397</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/txxxxt/ProducthuntProductCopy.xlsx
+++ b/txxxxt/ProducthuntProductCopy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1580,11 +1580,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="H123" sqref="H123"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/txxxxt/ProducthuntProductCopy.xlsx
+++ b/txxxxt/ProducthuntProductCopy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
